--- a/Data_Statistics.xlsx
+++ b/Data_Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\4 Figures\Fig. SEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65D64DB-8DAB-4F81-BBFF-C26F82C2E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B38CED-667D-45A5-9C65-F1A60564246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="3" r:id="rId1"/>
@@ -289,14 +289,6 @@
   </si>
   <si>
     <t>Irrigated agriculture water use efficiency (DPRK)</t>
-  </si>
-  <si>
-    <t>Land area equipped for irrigation
-(DPRK)</t>
-  </si>
-  <si>
-    <t>Land area equipped for irrigation
-(ROK)</t>
   </si>
   <si>
     <t>Total dam capacity
@@ -692,6 +684,14 @@
       </rPr>
       <t>GWh</t>
     </r>
+  </si>
+  <si>
+    <t>Cropland equipped for irrigation
+(DPRK)</t>
+  </si>
+  <si>
+    <t>Cropland equipped for irrigation
+(ROK)</t>
   </si>
 </sst>
 </file>
@@ -1462,22 +1462,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10864,7 +10864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
+      <selection pane="topRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -10929,267 +10929,267 @@
         <v>70</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>72</v>
       </c>
       <c r="K1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="R1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="T1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="W1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="AC1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AE1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AN1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AO1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AP1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AR1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AS1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AT1" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="AS1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT1" s="24" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="26" customFormat="1" ht="18">
       <c r="A2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="E2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="H2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="O2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="V2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" s="28" t="s">
+      <c r="AH2" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI2" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="AJ2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="R2" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="W2" s="28" t="s">
+      <c r="AM2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="AN2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="AR2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AS2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AT2" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF2" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI2" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK2" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ2" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR2" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS2" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT2" s="28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:46">

--- a/Data_Statistics.xlsx
+++ b/Data_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\4 Figures\Fig. SEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC645A75-E3D0-4746-B0A2-7B53976E2BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA38638-F4A2-4331-8858-F99C7026DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:BB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -816,10 +816,10 @@
         <v>4.3076000000000008</v>
       </c>
       <c r="D2" s="7">
-        <v>46.92</v>
+        <v>44.53</v>
       </c>
       <c r="E2" s="7">
-        <v>40.659999999999997</v>
+        <v>39.74</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -944,10 +944,10 @@
         <v>5.8410000000000002</v>
       </c>
       <c r="D3" s="7">
-        <v>47.93</v>
+        <v>45.73</v>
       </c>
       <c r="E3" s="7">
-        <v>41.5</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1072,10 +1072,10 @@
         <v>6.1509999999999998</v>
       </c>
       <c r="D4" s="7">
-        <v>49</v>
+        <v>46.92</v>
       </c>
       <c r="E4" s="7">
-        <v>42.06</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1200,10 +1200,10 @@
         <v>6.1926000000000005</v>
       </c>
       <c r="D5" s="7">
-        <v>50</v>
+        <v>48.11</v>
       </c>
       <c r="E5" s="7">
-        <v>42.87</v>
+        <v>41.55</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1328,10 +1328,10 @@
         <v>6.4753999999999996</v>
       </c>
       <c r="D6" s="7">
-        <v>50.97</v>
+        <v>49.3</v>
       </c>
       <c r="E6" s="7">
-        <v>43.43</v>
+        <v>41.95</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1456,10 +1456,10 @@
         <v>6.3513999999999999</v>
       </c>
       <c r="D7" s="7">
-        <v>51.9</v>
+        <v>50.5</v>
       </c>
       <c r="E7" s="7">
-        <v>44.22</v>
+        <v>42.7</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1584,10 +1584,10 @@
         <v>6.3688000000000002</v>
       </c>
       <c r="D8" s="7">
-        <v>53.12</v>
+        <v>51.69</v>
       </c>
       <c r="E8" s="7">
-        <v>45.07</v>
+        <v>43.53</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1714,10 +1714,10 @@
         <v>6.0173000000000005</v>
       </c>
       <c r="D9" s="7">
-        <v>54.33</v>
+        <v>52.88</v>
       </c>
       <c r="E9" s="7">
-        <v>45.54</v>
+        <v>43.98</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1844,10 +1844,10 @@
         <v>6.5549999999999997</v>
       </c>
       <c r="D10" s="7">
-        <v>55.55</v>
+        <v>54.08</v>
       </c>
       <c r="E10" s="7">
-        <v>45.88</v>
+        <v>44.31</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1974,10 +1974,10 @@
         <v>6.4456000000000007</v>
       </c>
       <c r="D11" s="7">
-        <v>57.18</v>
+        <v>55.67</v>
       </c>
       <c r="E11" s="7">
-        <v>46.26</v>
+        <v>44.79</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2104,10 +2104,10 @@
         <v>6.2057000000000002</v>
       </c>
       <c r="D12" s="7">
-        <v>57.85</v>
+        <v>56.39</v>
       </c>
       <c r="E12" s="7">
-        <v>46.66</v>
+        <v>45.16</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2248,10 +2248,10 @@
         <v>6.0346000000000002</v>
       </c>
       <c r="D13" s="7">
-        <v>58.17</v>
+        <v>56.92</v>
       </c>
       <c r="E13" s="7">
-        <v>47.25</v>
+        <v>45.72</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2392,10 +2392,10 @@
         <v>6.2728000000000002</v>
       </c>
       <c r="D14" s="7">
-        <v>58.92</v>
+        <v>57.71</v>
       </c>
       <c r="E14" s="7">
-        <v>47.1</v>
+        <v>45.65</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2534,10 +2534,10 @@
         <v>5.6381000000000006</v>
       </c>
       <c r="D15" s="7">
-        <v>59.14</v>
+        <v>57.25</v>
       </c>
       <c r="E15" s="7">
-        <v>46.72</v>
+        <v>45.33</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2676,10 +2676,10 @@
         <v>6.1909000000000001</v>
       </c>
       <c r="D16" s="7">
-        <v>56.56</v>
+        <v>55.09</v>
       </c>
       <c r="E16" s="7">
-        <v>46.29</v>
+        <v>44.9</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2820,10 +2820,10 @@
         <v>6.0507</v>
       </c>
       <c r="D17" s="7">
-        <v>56.79</v>
+        <v>55.09</v>
       </c>
       <c r="E17" s="7">
-        <v>45.69</v>
+        <v>44.29</v>
       </c>
       <c r="F17" s="7">
         <v>0.4031743378</v>
@@ -2976,10 +2976,10 @@
         <v>6.7866</v>
       </c>
       <c r="D18" s="7">
-        <v>59.01</v>
+        <v>57.25</v>
       </c>
       <c r="E18" s="7">
-        <v>45.71</v>
+        <v>44.27</v>
       </c>
       <c r="F18" s="7">
         <v>0.42011358030000001</v>
@@ -3132,10 +3132,10 @@
         <v>6.9506999999999994</v>
       </c>
       <c r="D19" s="7">
-        <v>59</v>
+        <v>57.25</v>
       </c>
       <c r="E19" s="7">
-        <v>45.84</v>
+        <v>44.48</v>
       </c>
       <c r="F19" s="7">
         <v>0.39253072490000002</v>
@@ -3288,10 +3288,10 @@
         <v>6.4123000000000001</v>
       </c>
       <c r="D20" s="7">
-        <v>58.99</v>
+        <v>57.25</v>
       </c>
       <c r="E20" s="7">
-        <v>46.13</v>
+        <v>44.74</v>
       </c>
       <c r="F20" s="7">
         <v>0.39833156289999999</v>
@@ -3444,10 +3444,10 @@
         <v>6.6272000000000002</v>
       </c>
       <c r="D21" s="7">
-        <v>58.95</v>
+        <v>57.25</v>
       </c>
       <c r="E21" s="7">
-        <v>46.23</v>
+        <v>44.93</v>
       </c>
       <c r="F21" s="7">
         <v>0.44804492359999998</v>
@@ -3600,10 +3600,10 @@
         <v>6.7110000000000003</v>
       </c>
       <c r="D22" s="7">
-        <v>58.89</v>
+        <v>57.25</v>
       </c>
       <c r="E22" s="7">
-        <v>45.88</v>
+        <v>44.6</v>
       </c>
       <c r="F22" s="7">
         <v>0.43497832800000008</v>
@@ -3756,10 +3756,10 @@
         <v>6.8381000000000007</v>
       </c>
       <c r="D23" s="7">
-        <v>58.81</v>
+        <v>57.25</v>
       </c>
       <c r="E23" s="7">
-        <v>46.64</v>
+        <v>45.3</v>
       </c>
       <c r="F23" s="7">
         <v>0.45104717439999997</v>
@@ -3916,10 +3916,10 @@
         <v>6.3494999999999999</v>
       </c>
       <c r="D24" s="7">
-        <v>58.79</v>
+        <v>57.25</v>
       </c>
       <c r="E24" s="7">
-        <v>47.24</v>
+        <v>45.86</v>
       </c>
       <c r="F24" s="7">
         <v>0.45433389489999998</v>
@@ -4076,10 +4076,10 @@
         <v>6.0541999999999998</v>
       </c>
       <c r="D25" s="7">
-        <v>58.77</v>
+        <v>57.25</v>
       </c>
       <c r="E25" s="7">
-        <v>47.56</v>
+        <v>46.16</v>
       </c>
       <c r="F25" s="7">
         <v>0.41693954770000002</v>
@@ -4236,10 +4236,10 @@
         <v>6.7291000000000007</v>
       </c>
       <c r="D26" s="7">
-        <v>58.66</v>
+        <v>57.25</v>
       </c>
       <c r="E26" s="7">
-        <v>47.39</v>
+        <v>45.96</v>
       </c>
       <c r="F26" s="7">
         <v>0.41799103970000001</v>
@@ -4396,10 +4396,10 @@
         <v>6.5682</v>
       </c>
       <c r="D27" s="7">
-        <v>57.47</v>
+        <v>56.15</v>
       </c>
       <c r="E27" s="7">
-        <v>47.53</v>
+        <v>46.09</v>
       </c>
       <c r="F27" s="7">
         <v>0.39988965900000001</v>
@@ -4558,10 +4558,10 @@
         <v>6.601</v>
       </c>
       <c r="D28" s="7">
-        <v>57.38</v>
+        <v>56.15</v>
       </c>
       <c r="E28" s="7">
-        <v>47.72</v>
+        <v>46.23</v>
       </c>
       <c r="F28" s="7">
         <v>0.36877329619999999</v>
@@ -4722,10 +4722,10 @@
         <v>6.2736000000000001</v>
       </c>
       <c r="D29" s="7">
-        <v>57.33</v>
+        <v>56.15</v>
       </c>
       <c r="E29" s="7">
-        <v>47.64</v>
+        <v>46.14</v>
       </c>
       <c r="F29" s="7">
         <v>0.3317348396</v>
@@ -4886,10 +4886,10 @@
         <v>6.9123000000000001</v>
       </c>
       <c r="D30" s="7">
-        <v>56.02</v>
+        <v>55.09</v>
       </c>
       <c r="E30" s="7">
-        <v>47.3</v>
+        <v>45.79</v>
       </c>
       <c r="F30" s="7">
         <v>0.34278695409999999</v>
@@ -5050,10 +5050,10 @@
         <v>7.0335000000000001</v>
       </c>
       <c r="D31" s="7">
-        <v>55.81</v>
+        <v>54.68</v>
       </c>
       <c r="E31" s="7">
-        <v>46.4</v>
+        <v>44.9</v>
       </c>
       <c r="F31" s="7">
         <v>0.32794768639999999</v>
@@ -5214,10 +5214,10 @@
         <v>6.5137999999999998</v>
       </c>
       <c r="D32" s="7">
-        <v>55.66</v>
+        <v>54.48</v>
       </c>
       <c r="E32" s="7">
-        <v>45.95</v>
+        <v>44.44</v>
       </c>
       <c r="F32" s="7">
         <v>0.32401004649999998</v>
@@ -5378,10 +5378,10 @@
         <v>6.5773999999999999</v>
       </c>
       <c r="D33" s="7">
-        <v>56.54</v>
+        <v>55.51</v>
       </c>
       <c r="E33" s="7">
-        <v>45.47</v>
+        <v>43.96</v>
       </c>
       <c r="F33" s="7">
         <v>0.36637777570000002</v>
@@ -5542,10 +5542,10 @@
         <v>6.3651999999999997</v>
       </c>
       <c r="D34" s="7">
-        <v>56.56</v>
+        <v>55.51</v>
       </c>
       <c r="E34" s="7">
-        <v>44.97</v>
+        <v>43.51</v>
       </c>
       <c r="F34" s="7">
         <v>0.37637002819999998</v>
@@ -5706,10 +5706,10 @@
         <v>6.7637999999999998</v>
       </c>
       <c r="D35" s="7">
-        <v>56.56</v>
+        <v>55.51</v>
       </c>
       <c r="E35" s="7">
-        <v>45.43</v>
+        <v>43.95</v>
       </c>
       <c r="F35" s="7">
         <v>0.36430665369999998</v>
@@ -5868,10 +5868,10 @@
         <v>6.9131</v>
       </c>
       <c r="D36" s="7">
-        <v>56.61</v>
+        <v>55.51</v>
       </c>
       <c r="E36" s="7">
-        <v>44.51</v>
+        <v>43.05</v>
       </c>
       <c r="F36" s="7">
         <v>0.3591928774</v>
@@ -6032,10 +6032,10 @@
         <v>7.2196999999999996</v>
       </c>
       <c r="D37" s="7">
-        <v>56.58</v>
+        <v>55.51</v>
       </c>
       <c r="E37" s="7">
-        <v>43.72</v>
+        <v>42.29</v>
       </c>
       <c r="F37" s="7">
         <v>0.35184451189999999</v>
@@ -6196,10 +6196,10 @@
         <v>7.2228000000000003</v>
       </c>
       <c r="D38" s="7">
-        <v>57.2</v>
+        <v>55.73</v>
       </c>
       <c r="E38" s="7">
-        <v>44.28</v>
+        <v>42.8</v>
       </c>
       <c r="F38" s="7">
         <v>0.36629897750000001</v>
@@ -6354,10 +6354,10 @@
         <v>7.0034000000000001</v>
       </c>
       <c r="D39" s="7">
-        <v>57.32</v>
+        <v>56.05</v>
       </c>
       <c r="E39" s="7">
-        <v>43.65</v>
+        <v>42.19</v>
       </c>
       <c r="F39" s="7">
         <v>0.37197182829999997</v>
@@ -6510,10 +6510,10 @@
         <v>7.0430000000000001</v>
       </c>
       <c r="D40" s="7">
-        <v>57.3</v>
+        <v>56.31</v>
       </c>
       <c r="E40" s="7">
-        <v>44.32</v>
+        <v>42.82</v>
       </c>
       <c r="F40" s="7">
         <v>0.36358446500000002</v>
@@ -6666,10 +6666,10 @@
         <v>6.8731</v>
       </c>
       <c r="D41" s="7">
-        <v>57.37</v>
+        <v>56.37</v>
       </c>
       <c r="E41" s="7">
-        <v>44.74</v>
+        <v>43.21</v>
       </c>
       <c r="F41" s="7">
         <v>0.33288551840000002</v>
@@ -6820,10 +6820,10 @@
         <v>6.4881000000000002</v>
       </c>
       <c r="D42" s="7">
-        <v>57.33</v>
+        <v>56.37</v>
       </c>
       <c r="E42" s="7">
-        <v>45.2</v>
+        <v>43.64</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>

--- a/Data_Statistics.xlsx
+++ b/Data_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\4 Figures\Fig. SEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA38638-F4A2-4331-8858-F99C7026DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECD029-8354-46FF-BFD1-8311D7FBCB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,170 +27,169 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
-    <t>NK_RiceYield</t>
-  </si>
-  <si>
-    <t>SK_RiceYield</t>
-  </si>
-  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>SK_CoalProduction</t>
-  </si>
-  <si>
-    <t>NK_CoalImport</t>
-  </si>
-  <si>
-    <t>SK_CoalImport</t>
-  </si>
-  <si>
-    <t>SK_CrudeOilImport</t>
-  </si>
-  <si>
-    <t>SK_ElectricityGeneration</t>
-  </si>
-  <si>
-    <t>NK_CokeImport</t>
-  </si>
-  <si>
-    <t>NK_RiceImport</t>
-  </si>
-  <si>
-    <t>NK_WheatImport</t>
-  </si>
-  <si>
-    <t>NK_SoyImport</t>
-  </si>
-  <si>
-    <t>NK_MaizeImport</t>
-  </si>
-  <si>
-    <t>SK_RiceImport</t>
-  </si>
-  <si>
-    <t>SK_WheatImport</t>
-  </si>
-  <si>
-    <t>SK_SoyImport</t>
-  </si>
-  <si>
-    <t>SK_MaizeImport</t>
-  </si>
-  <si>
-    <t>NK_FoodReceived_Rice</t>
-  </si>
-  <si>
-    <t>NK_FoodReceived_other_cereals</t>
-  </si>
-  <si>
-    <t>NK_FoodReceived_Non_Cereals</t>
-  </si>
-  <si>
-    <t>NK_PrevalenceOfUndernourishment</t>
-  </si>
-  <si>
-    <t>SK_PrevalenceOfUndernourishment</t>
   </si>
   <si>
     <t>&lt;2.5</t>
   </si>
   <si>
-    <t>NK_UsePerAreaOfCroplandNutrientK2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>DPRK_RiceYield</t>
   </si>
   <si>
-    <t>SK_CokeImport</t>
+    <t>DPRK_LandAreaEquippedForIrrigation</t>
   </si>
   <si>
-    <t>NK_PrimaryEnergyConsumption</t>
+    <t>DPRK_IrrigatedAgricultureWaterUseEfficiency</t>
   </si>
   <si>
-    <t>NK_EnergySupplyCoal</t>
+    <t>DPRK_WaterConsumptionCoefficient</t>
   </si>
   <si>
-    <t>NK_EnergySupplyHydro</t>
+    <t>DPRK_TotalDamCapacity</t>
   </si>
   <si>
-    <t>NK_EnergySupplyOil</t>
+    <t>DPRK_CoalProduction</t>
   </si>
   <si>
-    <t>NK_EnergySupplyBiofuelsAndWaste</t>
+    <t>DPRK_CoalImport</t>
   </si>
   <si>
-    <t>NK_EnergySupply WindAndSolar</t>
+    <t>DPRK_CrudeOilImport</t>
   </si>
   <si>
-    <t>NK_ElectricitySupplyCoal</t>
+    <t>DPRK_ElectricityGeneration</t>
   </si>
   <si>
-    <t>NK_ElectricitySupplyOil</t>
+    <t>DPRK_RiceImport</t>
   </si>
   <si>
-    <t>NK_ElectricitySupplyHydro</t>
+    <t>DPRK_WheatImport</t>
   </si>
   <si>
-    <t>NK_ElectricitySupplySolar</t>
+    <t>DPRK_SoyImport</t>
   </si>
   <si>
-    <t>NK_WaterConsumptionCoefficient</t>
+    <t>DPRK_MaizeImport</t>
   </si>
   <si>
-    <t>SK_WaterConsumptionCoefficient</t>
+    <t>DPRK_FoodImports</t>
   </si>
   <si>
-    <t>NK_FoodImports</t>
+    <t>DPRK_FoodReceived_Rice</t>
   </si>
   <si>
-    <t>SK_FoodImports</t>
+    <t>DPRK_FoodReceived_Wheat</t>
   </si>
   <si>
-    <t>NK_FoodReceived_Wheat</t>
+    <t>DPRK_FoodReceived_other_cereals</t>
   </si>
   <si>
-    <t>NK_ProductionN</t>
+    <t>DPRK_FoodReceived_Non_Cereals</t>
   </si>
   <si>
-    <t>NK_ProductionP205</t>
+    <t>DPRK_PrevalenceOfUndernourishment</t>
   </si>
   <si>
-    <t>NK_ProductionK20</t>
+    <t>DPRK_ProductionN</t>
   </si>
   <si>
-    <t>NK_LandAreaEquippedForIrrigation</t>
+    <t>DPRK_ProductionP205</t>
   </si>
   <si>
-    <t>SK_LandAreaEquippedForIrrigation</t>
+    <t>DPRK_ProductioDPRK20</t>
   </si>
   <si>
-    <t>NK_IrrigatedAgricultureWaterUseEfficiency</t>
+    <t>DPRK_UsePerAreaOfCroplandNutrientNitrogenN</t>
   </si>
   <si>
-    <t>SK_IrrigatedAgricultureWaterUseEfficiency</t>
+    <t>DPRK_UsePerAreaOfCroplandNutrientP2O5</t>
   </si>
   <si>
-    <t>NK_TotalDamCapacity</t>
+    <t>DPRK_UsePerAreaOfCroplandNutrientK2O</t>
   </si>
   <si>
-    <t>SK_TotalDamCapacity</t>
+    <t>DPRK_CokeImport</t>
   </si>
   <si>
-    <t>NK_CoalProduction</t>
+    <t>DPRK_ElectricityConsumption</t>
   </si>
   <si>
-    <t>NK_CrudeOilImport</t>
+    <t>DPRK_PrimaryEnergyConsumption</t>
   </si>
   <si>
-    <t>NK_ElectricityGeneration</t>
+    <t>DPRK_EnergySupplyCoal</t>
   </si>
   <si>
-    <t>NK_UsePerAreaOfCroplandNutrientNitrogenN</t>
+    <t>DPRK_EnergySupplyHydro</t>
   </si>
   <si>
-    <t>NK_UsePerAreaOfCroplandNutrientP2O5</t>
+    <t>DPRK_EnergySupplyBiofuelsAndWaste</t>
   </si>
   <si>
-    <t>NK_ElectricityConsumption</t>
+    <t>DPRK_EnergySupplyOil</t>
+  </si>
+  <si>
+    <t>DPRK_EnergySupply WindAndSolar</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplyCoal</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplyOil</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplyHydro</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplySolar</t>
+  </si>
+  <si>
+    <t>ROK_RiceYield</t>
+  </si>
+  <si>
+    <t>ROK_LandAreaEquippedForIrrigation</t>
+  </si>
+  <si>
+    <t>ROK_IrrigatedAgricultureWaterUseEfficiency</t>
+  </si>
+  <si>
+    <t>ROK_WaterConsumptionCoefficient</t>
+  </si>
+  <si>
+    <t>ROK_TotalDamCapacity</t>
+  </si>
+  <si>
+    <t>ROK_CoalProduction</t>
+  </si>
+  <si>
+    <t>ROK_CoalImport</t>
+  </si>
+  <si>
+    <t>ROK_CrudeOilImport</t>
+  </si>
+  <si>
+    <t>ROK_ElectricityGeneration</t>
+  </si>
+  <si>
+    <t>ROK_RiceImport</t>
+  </si>
+  <si>
+    <t>ROK_WheatImport</t>
+  </si>
+  <si>
+    <t>ROK_SoyImport</t>
+  </si>
+  <si>
+    <t>ROK_MaizeImport</t>
+  </si>
+  <si>
+    <t>ROK_FoodImports</t>
+  </si>
+  <si>
+    <t>ROK_PrevalenceOfUndernourishment</t>
+  </si>
+  <si>
+    <t>ROK_CokeImport</t>
   </si>
 </sst>
 </file>
@@ -200,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,11 +208,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,22 +229,9 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -272,22 +258,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -297,6 +283,7 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,160 +567,160 @@
   <dimension ref="A1:BB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="49.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="40" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="49.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="45.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="44.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="35.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="40.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="37" style="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="29.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.88671875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="5" customFormat="1" ht="19.8" customHeight="1">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="19.8" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>18</v>
@@ -745,68 +732,68 @@
         <v>20</v>
       </c>
       <c r="AI1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AK1" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="15.6">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1980</v>
       </c>
       <c r="B2" s="6">
@@ -934,7 +921,7 @@
       <c r="BB2" s="8"/>
     </row>
     <row r="3" spans="1:54" ht="15.6">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1981</v>
       </c>
       <c r="B3" s="6">
@@ -1062,7 +1049,7 @@
       <c r="BB3" s="8"/>
     </row>
     <row r="4" spans="1:54" ht="15.6">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>1982</v>
       </c>
       <c r="B4" s="6">
@@ -1190,7 +1177,7 @@
       <c r="BB4" s="8"/>
     </row>
     <row r="5" spans="1:54" ht="15.6">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>1983</v>
       </c>
       <c r="B5" s="6">
@@ -1318,7 +1305,7 @@
       <c r="BB5" s="8"/>
     </row>
     <row r="6" spans="1:54" ht="15.6">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>1984</v>
       </c>
       <c r="B6" s="6">
@@ -1446,7 +1433,7 @@
       <c r="BB6" s="8"/>
     </row>
     <row r="7" spans="1:54" ht="15.6">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>1985</v>
       </c>
       <c r="B7" s="6">
@@ -1574,7 +1561,7 @@
       <c r="BB7" s="8"/>
     </row>
     <row r="8" spans="1:54" ht="15.6">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1986</v>
       </c>
       <c r="B8" s="6">
@@ -1704,7 +1691,7 @@
       <c r="BB8" s="8"/>
     </row>
     <row r="9" spans="1:54" ht="15.6">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>1987</v>
       </c>
       <c r="B9" s="6">
@@ -1834,7 +1821,7 @@
       <c r="BB9" s="8"/>
     </row>
     <row r="10" spans="1:54" ht="15.6">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>1988</v>
       </c>
       <c r="B10" s="6">
@@ -1964,7 +1951,7 @@
       <c r="BB10" s="8"/>
     </row>
     <row r="11" spans="1:54" ht="15.6">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>1989</v>
       </c>
       <c r="B11" s="6">
@@ -2094,7 +2081,7 @@
       <c r="BB11" s="8"/>
     </row>
     <row r="12" spans="1:54" ht="15.6">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>1990</v>
       </c>
       <c r="B12" s="6">
@@ -2238,7 +2225,7 @@
       <c r="BB12" s="8"/>
     </row>
     <row r="13" spans="1:54" ht="15.6">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>1991</v>
       </c>
       <c r="B13" s="6">
@@ -2382,7 +2369,7 @@
       <c r="BB13" s="8"/>
     </row>
     <row r="14" spans="1:54" ht="15.6">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>1992</v>
       </c>
       <c r="B14" s="6">
@@ -2524,7 +2511,7 @@
       <c r="BB14" s="8"/>
     </row>
     <row r="15" spans="1:54" ht="15.6">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>1993</v>
       </c>
       <c r="B15" s="6">
@@ -2666,7 +2653,7 @@
       <c r="BB15" s="8"/>
     </row>
     <row r="16" spans="1:54" ht="15.6">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>1994</v>
       </c>
       <c r="B16" s="6">
@@ -2810,7 +2797,7 @@
       <c r="BB16" s="8"/>
     </row>
     <row r="17" spans="1:54" ht="15.6">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>1995</v>
       </c>
       <c r="B17" s="6">
@@ -2966,7 +2953,7 @@
       <c r="BB17" s="8"/>
     </row>
     <row r="18" spans="1:54" ht="15.6">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>1996</v>
       </c>
       <c r="B18" s="6">
@@ -3122,7 +3109,7 @@
       <c r="BB18" s="8"/>
     </row>
     <row r="19" spans="1:54" ht="15.6">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>1997</v>
       </c>
       <c r="B19" s="6">
@@ -3278,7 +3265,7 @@
       <c r="BB19" s="8"/>
     </row>
     <row r="20" spans="1:54" ht="15.6">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>1998</v>
       </c>
       <c r="B20" s="6">
@@ -3434,7 +3421,7 @@
       <c r="BB20" s="8"/>
     </row>
     <row r="21" spans="1:54" ht="15.6">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>1999</v>
       </c>
       <c r="B21" s="6">
@@ -3590,7 +3577,7 @@
       <c r="BB21" s="8"/>
     </row>
     <row r="22" spans="1:54" ht="15.6">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>2000</v>
       </c>
       <c r="B22" s="6">
@@ -3746,7 +3733,7 @@
       <c r="BB22" s="8"/>
     </row>
     <row r="23" spans="1:54" ht="15.6">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>2001</v>
       </c>
       <c r="B23" s="6">
@@ -3849,7 +3836,7 @@
         <v>36</v>
       </c>
       <c r="AI23" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="7">
         <v>0.23300000000000001</v>
@@ -3906,7 +3893,7 @@
       <c r="BB23" s="8"/>
     </row>
     <row r="24" spans="1:54" ht="15.6">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>2002</v>
       </c>
       <c r="B24" s="6">
@@ -4066,7 +4053,7 @@
       <c r="BB24" s="8"/>
     </row>
     <row r="25" spans="1:54" ht="15.6">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>2003</v>
       </c>
       <c r="B25" s="6">
@@ -4226,7 +4213,7 @@
       <c r="BB25" s="8"/>
     </row>
     <row r="26" spans="1:54" ht="15.6">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
         <v>2004</v>
       </c>
       <c r="B26" s="6">
@@ -4329,7 +4316,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="AI26" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="7">
         <v>0.67</v>
@@ -4386,7 +4373,7 @@
       <c r="BB26" s="8"/>
     </row>
     <row r="27" spans="1:54" ht="15.6">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>2005</v>
       </c>
       <c r="B27" s="6">
@@ -4489,7 +4476,7 @@
         <v>34.5</v>
       </c>
       <c r="AI27" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="7">
         <v>0.67</v>
@@ -4548,7 +4535,7 @@
       </c>
     </row>
     <row r="28" spans="1:54" ht="15.6">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
         <v>2006</v>
       </c>
       <c r="B28" s="6">
@@ -4651,7 +4638,7 @@
         <v>36.9</v>
       </c>
       <c r="AI28" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="7">
         <v>0.65</v>
@@ -4712,7 +4699,7 @@
       </c>
     </row>
     <row r="29" spans="1:54" ht="15.6">
-      <c r="A29" s="1">
+      <c r="A29" s="5">
         <v>2007</v>
       </c>
       <c r="B29" s="6">
@@ -4815,7 +4802,7 @@
         <v>39.1</v>
       </c>
       <c r="AI29" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="7">
         <v>0.65</v>
@@ -4876,7 +4863,7 @@
       </c>
     </row>
     <row r="30" spans="1:54" ht="15.6">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>2008</v>
       </c>
       <c r="B30" s="6">
@@ -4979,7 +4966,7 @@
         <v>40.5</v>
       </c>
       <c r="AI30" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="7">
         <v>0.65</v>
@@ -5040,7 +5027,7 @@
       </c>
     </row>
     <row r="31" spans="1:54" ht="15.6">
-      <c r="A31" s="1">
+      <c r="A31" s="5">
         <v>2009</v>
       </c>
       <c r="B31" s="6">
@@ -5143,7 +5130,7 @@
         <v>41.3</v>
       </c>
       <c r="AI31" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="7">
         <v>0.65</v>
@@ -5204,7 +5191,7 @@
       </c>
     </row>
     <row r="32" spans="1:54" ht="15.6">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>2010</v>
       </c>
       <c r="B32" s="6">
@@ -5307,7 +5294,7 @@
         <v>41.6</v>
       </c>
       <c r="AI32" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="7">
         <v>0.65</v>
@@ -5368,7 +5355,7 @@
       </c>
     </row>
     <row r="33" spans="1:54" ht="15.6">
-      <c r="A33" s="1">
+      <c r="A33" s="5">
         <v>2011</v>
       </c>
       <c r="B33" s="6">
@@ -5471,7 +5458,7 @@
         <v>41.6</v>
       </c>
       <c r="AI33" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="7">
         <v>0.65</v>
@@ -5532,7 +5519,7 @@
       </c>
     </row>
     <row r="34" spans="1:54" ht="15.6">
-      <c r="A34" s="1">
+      <c r="A34" s="5">
         <v>2012</v>
       </c>
       <c r="B34" s="6">
@@ -5635,7 +5622,7 @@
         <v>41.8</v>
       </c>
       <c r="AI34" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="7">
         <v>0.65</v>
@@ -5696,7 +5683,7 @@
       </c>
     </row>
     <row r="35" spans="1:54" ht="15.6">
-      <c r="A35" s="1">
+      <c r="A35" s="5">
         <v>2013</v>
       </c>
       <c r="B35" s="6">
@@ -5797,7 +5784,7 @@
         <v>41.8</v>
       </c>
       <c r="AI35" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="7">
         <v>0.65</v>
@@ -5858,7 +5845,7 @@
       </c>
     </row>
     <row r="36" spans="1:54" ht="15.6">
-      <c r="A36" s="1">
+      <c r="A36" s="5">
         <v>2014</v>
       </c>
       <c r="B36" s="6">
@@ -5961,7 +5948,7 @@
         <v>42.7</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="7">
         <v>0.65</v>
@@ -6022,7 +6009,7 @@
       </c>
     </row>
     <row r="37" spans="1:54" ht="15.6">
-      <c r="A37" s="1">
+      <c r="A37" s="5">
         <v>2015</v>
       </c>
       <c r="B37" s="6">
@@ -6125,7 +6112,7 @@
         <v>43.3</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="7">
         <v>0.65</v>
@@ -6186,7 +6173,7 @@
       </c>
     </row>
     <row r="38" spans="1:54" ht="15.6">
-      <c r="A38" s="1">
+      <c r="A38" s="5">
         <v>2016</v>
       </c>
       <c r="B38" s="6">
@@ -6283,7 +6270,7 @@
         <v>44.2</v>
       </c>
       <c r="AI38" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="7">
         <v>0.65</v>
@@ -6344,7 +6331,7 @@
       </c>
     </row>
     <row r="39" spans="1:54" ht="15.6">
-      <c r="A39" s="1">
+      <c r="A39" s="5">
         <v>2017</v>
       </c>
       <c r="B39" s="6">
@@ -6439,7 +6426,7 @@
         <v>45.8</v>
       </c>
       <c r="AI39" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="7">
         <v>0.65</v>
@@ -6500,7 +6487,7 @@
       </c>
     </row>
     <row r="40" spans="1:54" ht="15.6">
-      <c r="A40" s="1">
+      <c r="A40" s="5">
         <v>2018</v>
       </c>
       <c r="B40" s="6">
@@ -6595,7 +6582,7 @@
         <v>45.3</v>
       </c>
       <c r="AI40" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="7">
         <v>0.65</v>
@@ -6656,7 +6643,7 @@
       </c>
     </row>
     <row r="41" spans="1:54" ht="15.6">
-      <c r="A41" s="1">
+      <c r="A41" s="5">
         <v>2019</v>
       </c>
       <c r="B41" s="6">
@@ -6749,7 +6736,7 @@
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
       <c r="AI41" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="7">
         <v>0.22500000000000001</v>
@@ -6810,7 +6797,7 @@
       </c>
     </row>
     <row r="42" spans="1:54" ht="15.6">
-      <c r="A42" s="1">
+      <c r="A42" s="5">
         <v>2020</v>
       </c>
       <c r="B42" s="6">
@@ -6899,7 +6886,7 @@
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
       <c r="AI42" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="7">
         <v>0</v>

--- a/Data_Statistics.xlsx
+++ b/Data_Statistics.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\4 Figures\Fig. SEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\2 Codes\Sanctions-Drought-Korea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECD029-8354-46FF-BFD1-8311D7FBCB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B19119-AAD1-45DA-BF89-39D386F1BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="unit info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
   <si>
     <t>year</t>
   </si>
@@ -191,6 +192,247 @@
   <si>
     <t>ROK_CokeImport</t>
   </si>
+  <si>
+    <t>Indicator_Code</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>t/ha</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <r>
+      <t>dollars/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <r>
+      <t>km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mb/d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kWh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>DPRK_imports</t>
+  </si>
+  <si>
+    <t>ROK_imports</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>kg/ha</t>
+  </si>
+  <si>
+    <t>Mst</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TJ</t>
+    </r>
+  </si>
+  <si>
+    <t>DPRK_EnergySupplyWindAndSolar</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GWh</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +479,37 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -284,6 +557,18 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +852,7 @@
   <dimension ref="A1:BB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6947,4 +7232,455 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36269DA-DB56-47A5-9F26-CDA0CA7D6F4F}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999">
+      <c r="A11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.399999999999999">
+      <c r="A12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.399999999999999">
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.399999999999999">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.399999999999999">
+      <c r="A15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.399999999999999">
+      <c r="A16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.399999999999999">
+      <c r="A17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.399999999999999">
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.399999999999999">
+      <c r="A19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999">
+      <c r="A20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.399999999999999">
+      <c r="A21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.399999999999999">
+      <c r="A22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.399999999999999">
+      <c r="A23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999">
+      <c r="A24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.399999999999999">
+      <c r="A25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999">
+      <c r="A26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999">
+      <c r="A27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999">
+      <c r="A28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999">
+      <c r="A29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.399999999999999">
+      <c r="A30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999">
+      <c r="A31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999">
+      <c r="A32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.399999999999999">
+      <c r="A33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.399999999999999">
+      <c r="A36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.399999999999999">
+      <c r="A37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999">
+      <c r="A38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.399999999999999">
+      <c r="A44" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.399999999999999">
+      <c r="A46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.399999999999999">
+      <c r="A47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.399999999999999">
+      <c r="A48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.399999999999999">
+      <c r="A49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.399999999999999">
+      <c r="A50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.399999999999999">
+      <c r="A51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.399999999999999">
+      <c r="A52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.399999999999999">
+      <c r="A53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.399999999999999">
+      <c r="A54" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>